--- a/DEV/Microservicios-User-app/Auth-controller/US5_CP_DEV.xlsx
+++ b/DEV/Microservicios-User-app/Auth-controller/US5_CP_DEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-User-app\Auth-controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2760795-7122-47D2-829B-BED42957B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5BD24A-2355-4019-BF76-0B3D5FEFAA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t>Sprint</t>
   </si>
@@ -154,9 +154,6 @@
     <t>api/auth/get-invitation/{idUser}</t>
   </si>
   <si>
-    <t>Mostrar Usario Invitacion</t>
-  </si>
-  <si>
     <t xml:space="preserve">FALLO </t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>api/auth/change-invitacion-reference</t>
   </si>
   <si>
-    <t>Validar informacion de registro de Usuarion según invitacion</t>
-  </si>
-  <si>
     <t>Crear usuario</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>Validar ceacion de registro de Usuario de inscripcion</t>
   </si>
   <si>
-    <t>Validar ceacion de registro de Usuario de iniciar sesion</t>
-  </si>
-  <si>
     <t>Se debe mostrar los registros de User, en la tabla users en la BD, al consumir el servicio POST. "api/auth/signin"</t>
   </si>
   <si>
@@ -236,6 +227,18 @@
   </si>
   <si>
     <t>api/auth/create-verification-code</t>
+  </si>
+  <si>
+    <t>Mostrar Usuario Invitacion</t>
+  </si>
+  <si>
+    <t>Validar informacion de registro de Usuario según invitacion</t>
+  </si>
+  <si>
+    <t>Iniciar Sesion</t>
+  </si>
+  <si>
+    <t>Validar ingreso de registro de Usuario de iniciar sesion</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEFDFD0-32E2-4D6C-ACEB-3E52EFAD76E5}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,17 +796,17 @@
         <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>15</v>
@@ -839,13 +842,13 @@
         <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3" t="s">
@@ -885,17 +888,17 @@
         <v>33</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>15</v>
@@ -931,13 +934,13 @@
         <v>33</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3" t="s">
@@ -973,13 +976,13 @@
         <v>33</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3" t="s">
@@ -1019,13 +1022,13 @@
         <v>33</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3" t="s">
@@ -1065,13 +1068,13 @@
         <v>33</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="3" t="s">
@@ -1111,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="3" t="s">
@@ -1157,13 +1160,13 @@
         <v>33</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="3" t="s">
@@ -1203,13 +1206,13 @@
         <v>33</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="3" t="s">
